--- a/biology/Botanique/Léon_Géneau_de_Lamarlière/Léon_Géneau_de_Lamarlière.xlsx
+++ b/biology/Botanique/Léon_Géneau_de_Lamarlière/Léon_Géneau_de_Lamarlière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_G%C3%A9neau_de_Lamarli%C3%A8re</t>
+          <t>Léon_Géneau_de_Lamarlière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Geneau de Lamarlière, né à Tardinghen (Pas-de-Calais), le 4 avril 1865 et décédé à Reims en septembre 1903, est un botaniste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Geneau de Lamarlière, né à Tardinghen (Pas-de-Calais), le 4 avril 1865 et décédé à Reims en septembre 1903, est un botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_G%C3%A9neau_de_Lamarli%C3%A8re</t>
+          <t>Léon_Géneau_de_Lamarlière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études à l'École normale de Dohem et au petit séminaire d'Arras. Après ses études secondaires, il alla à la Faculté catholique de Lille, où il devint bientôt préparateur. Il travailla en vue de la Licence ès sciences naturelles, où il fut reçu en 1890.
 Il fut l'élève d'Amédée Masclef et se spécialisa dans la botanique. Il commença à préparer une thèse de botanique pour le doctorat, tout en s'occupant de
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_G%C3%A9neau_de_Lamarli%C3%A8re</t>
+          <t>Léon_Géneau_de_Lamarlière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notes bryologiques sur les environs de Reims, Typographie et lithographie de l'Indépendant rémois, 1893, 51 pages
 Recherches morphologiques sur la famille des ombellifères, suivi de Recherches physiologiques sur les ombellifères, Le Bigot Frères, 1893, 200 pages.
